--- a/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,74%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>332,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>962,54%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>172,66%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 8,15</t>
+          <t>-11,43; 11,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 9,87</t>
+          <t>-0,73; 18,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,32</t>
+          <t>5,24; 24,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 147,91</t>
+          <t>-1,7; 25,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,06; 622,97</t>
+          <t>-75,97; 380,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 494,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-38,28; 1555,22</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>-15,28%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-28,4%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-13,15%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,62</t>
+          <t>-3,37; 5,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 4,74</t>
+          <t>-15,62; 4,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,33</t>
+          <t>-7,83; 2,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 277,78</t>
+          <t>-7,13; 4,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,37; 366,25</t>
+          <t>-51,66; 259,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,15; 108,27</t>
+          <t>-92,95; 745,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-76,6; 102,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-64,53; 134,08</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>111,68%</t>
+          <t>-34,09%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-29,27%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,38</t>
+          <t>-3,09; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 4,26</t>
+          <t>-13,08; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,7</t>
+          <t>-3,92; 4,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,36; 420,82</t>
+          <t>-9,93; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-87,66; 927,27</t>
+          <t>-82,16; 524,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 614,09</t>
+          <t>-95,46; 388,42</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-80,51; 523,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-69,61; 65,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 127,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 160,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 112,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 3,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 3,97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 4,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 4,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-41,77; 132,97</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-74,7; 237,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-38,98; 146,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,81; 79,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,53</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>332,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>962,54%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>172,66%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.6525621723311059</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.95097978255435</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.95651683462679</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.56504737714868</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.07585262632679739</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>3.466865182754788</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>9.256257794217069</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.750405281160651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; 11,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 18,82</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 24,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 25,68</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-75,97; 380,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-38,28; 1555,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.18177739155998</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.80534001488344</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.244751665417362</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.624650556317888</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7408855795093435</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.3685874789539509</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.48585210618207</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.49127741828313</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>25.093895769749</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>28.18194405693649</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.803526119081384</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>15.8888469830552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>32,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-15,28%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-28,4%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-13,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 5,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,62; 4,85</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 2,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 4,8</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-51,66; 259,76</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-92,95; 745,1</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-76,6; 102,39</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-64,53; 134,08</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.908182597734997</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7680448413060946</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.301855746490395</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.9696820287598982</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7201661819126458</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.163795046197355</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2074573526159151</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1349088142376434</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-34,09%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-29,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.800904412774073</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.13027213013026</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.34939775059226</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.053360550736701</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4121938083345451</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9055112941497778</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7403868438493125</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6572596043713264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 3,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,08; 3,37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 4,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,93; 3,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-82,16; 524,27</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-95,46; 388,42</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-80,51; 523,29</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-69,61; 65,21</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.120604273479408</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.939460095498926</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.727850466681169</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.537663858142902</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.094712261180492</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>10.11487096614878</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.286834068420394</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.311211187441719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +819,213 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.130359479603633</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.754884213078944</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5826724825573948</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.022176734183699</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.6113166608429975</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3262782817467397</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1989613163809405</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3171625235765317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.861945527598089</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.19460433732785</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.694596215127538</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.34430318829441</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7390364215078286</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9491749639411735</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7790055650633214</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7135347527906695</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.586094769854761</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.714196509769602</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.649621658778502</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.793933403244044</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.167982354773848</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>5.612815289779149</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5873234680824271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,8%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-5,99%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>24,7%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 3,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 3,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 4,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 4,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-41,77; 132,97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-74,7; 237,4</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-38,98; 146,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; 79,52</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.799320390384595</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5435169697624989</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.383819780059223</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3276315205264516</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4709298167902224</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1180477072473574</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3119950468729272</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04207644161743487</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.480386622067681</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.981184794683171</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.254454927532992</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.665608917029613</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3112260991705468</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6744768071239052</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3774356071728107</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3929189060209903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.203824681301279</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.661776618143911</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.687808086302119</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.897263830813061</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.971604448688117</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.198148938426538</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.588383063276804</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9146875372574294</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
